--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89247.45547901084</v>
+        <v>91234.29553749639</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20002932.62808474</v>
+        <v>20060381.09850432</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10509092.07651444</v>
+        <v>10565397.32237268</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5257639.239673932</v>
+        <v>5215524.732873968</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +673,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>14.43038700200999</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>352.5025113236554</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -753,7 +755,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>52.84233230531348</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,7 +791,7 @@
         <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>140.4611363452987</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
         <v>182.9205141195597</v>
@@ -817,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>68.83205621562998</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>65.76953573495733</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>125.9082691827426</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -902,7 +904,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>28.65193780215796</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1054,10 +1056,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>87.83693424611759</v>
       </c>
       <c r="D7" t="n">
-        <v>82.17849676495476</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -1066,7 +1068,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>72.23907092856646</v>
+        <v>173.6367412348446</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1291,22 +1293,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>34.79484432979901</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>68.83205621563029</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1379,10 +1381,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>119.5893676834712</v>
+        <v>106.3192265349074</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>34.79484432979901</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>19.20130855525859</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>106.3192265349076</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>173.6367412348446</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1767,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>68.83205621563042</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>34.79484432979879</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>106.3192265349073</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>143.4324547506684</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>88.66266823451852</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>139.4851730221162</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>109.7290404931423</v>
       </c>
       <c r="E20" t="n">
-        <v>139.2702769432207</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2242,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>110.079447227338</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>34.79484432979879</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2330,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>162.3586916928205</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>108.7407054397781</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2491,10 +2493,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>28.0043714009595</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.29514422336433</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>252.8252773014387</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>419.1941622516777</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2764,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>164.540418312084</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>163.7727216043775</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>23.96291297011757</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2801,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.4019074491786</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2950,7 +2952,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>68.83205621563042</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2959,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3001,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>252.3830580347925</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>106.3192265349073</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>173.6367412348448</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3190,22 +3192,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>139.4851730221162</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>65.7695357349571</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3269,19 +3271,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>117.7761222978269</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>140.0226407924335</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3442,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.83205621563052</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3484,7 +3486,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>242.1650534277153</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3503,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>128.6552774352945</v>
       </c>
       <c r="D38" t="n">
-        <v>367.6144970449897</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3557,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>22.20530690494346</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>164.540418312084</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>154.0476985870095</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>130.1623136021051</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>127.2960718860381</v>
+        <v>199.359333454991</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>366.5719984050743</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>322.8766161951895</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>2.995605349316263</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4065,13 +4067,13 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
         <v>93.11323406457203</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U45" t="n">
-        <v>181.4362168841621</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V45" t="n">
         <v>202.9234074721264</v>
@@ -4135,16 +4137,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>22.26382903593143</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>163.2078631018987</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1624.67405208597</v>
+        <v>1164.243615207943</v>
       </c>
       <c r="C2" t="n">
-        <v>1197.77332209927</v>
+        <v>1164.243615207943</v>
       </c>
       <c r="D2" t="n">
-        <v>774.4807012842705</v>
+        <v>1164.243615207943</v>
       </c>
       <c r="E2" t="n">
-        <v>774.4807012842705</v>
+        <v>1164.243615207943</v>
       </c>
       <c r="F2" t="n">
-        <v>349.3565194736707</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G2" t="n">
-        <v>349.3565194736707</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H2" t="n">
-        <v>51.48814094770552</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L2" t="n">
-        <v>36.91199246082674</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="M2" t="n">
-        <v>475.2419029331441</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N2" t="n">
-        <v>932.027809635875</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O2" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P2" t="n">
         <v>1845.599623041337</v>
@@ -4355,25 +4357,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U2" t="n">
-        <v>1624.67405208597</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V2" t="n">
-        <v>1624.67405208597</v>
+        <v>1164.243615207943</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.67405208597</v>
+        <v>1164.243615207943</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.67405208597</v>
+        <v>1164.243615207943</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.67405208597</v>
+        <v>1164.243615207943</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4391,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E3" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F3" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J3" t="n">
-        <v>316.0561247023297</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K3" t="n">
-        <v>316.0561247023297</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L3" t="n">
-        <v>475.2419029331441</v>
+        <v>393.2225928484411</v>
       </c>
       <c r="M3" t="n">
-        <v>932.027809635875</v>
+        <v>393.2225928484411</v>
       </c>
       <c r="N3" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O3" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P3" t="n">
-        <v>1388.813716338606</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1120.093114985063</v>
+        <v>106.4393219715641</v>
       </c>
       <c r="C4" t="n">
-        <v>948.1205518639796</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D4" t="n">
-        <v>784.8037789907503</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E4" t="n">
-        <v>618.5955731436038</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F4" t="n">
-        <v>446.7337989181643</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J4" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K4" t="n">
-        <v>76.20565529896515</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L4" t="n">
-        <v>430.8949765933859</v>
+        <v>449.0926419794055</v>
       </c>
       <c r="M4" t="n">
-        <v>822.0807715636367</v>
+        <v>840.2784369496563</v>
       </c>
       <c r="N4" t="n">
-        <v>1199.572282439673</v>
+        <v>1217.769947825692</v>
       </c>
       <c r="O4" t="n">
         <v>1555.000411119436</v>
@@ -4516,22 +4518,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T4" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U4" t="n">
-        <v>1845.599623041337</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V4" t="n">
-        <v>1845.599623041337</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W4" t="n">
-        <v>1779.165748561582</v>
+        <v>765.5119555480826</v>
       </c>
       <c r="X4" t="n">
-        <v>1536.601852007387</v>
+        <v>522.9480589938877</v>
       </c>
       <c r="Y4" t="n">
-        <v>1310.259083697129</v>
+        <v>296.6052906836297</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>887.1053432625264</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="C5" t="n">
-        <v>460.2046132758265</v>
+        <v>886.181553127969</v>
       </c>
       <c r="D5" t="n">
-        <v>36.91199246082674</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K5" t="n">
-        <v>475.2419029331441</v>
+        <v>358.3859952497894</v>
       </c>
       <c r="L5" t="n">
-        <v>932.027809635875</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="M5" t="n">
-        <v>932.027809635875</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="N5" t="n">
-        <v>1388.813716338606</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O5" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T5" t="n">
-        <v>1712.290977599166</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U5" t="n">
-        <v>1712.290977599166</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V5" t="n">
-        <v>1712.290977599166</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W5" t="n">
-        <v>1712.290977599166</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X5" t="n">
-        <v>1712.290977599166</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1306.953707554057</v>
+        <v>1440.262352996227</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J6" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>765.3953884431487</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L6" t="n">
-        <v>1222.18129514588</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M6" t="n">
-        <v>1222.18129514588</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N6" t="n">
-        <v>1222.18129514588</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O6" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956634</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4674,7 +4676,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4683,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="7">
@@ -4699,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>629.9631182453602</v>
+        <v>629.96311824536</v>
       </c>
       <c r="C7" t="n">
-        <v>457.9905551242762</v>
+        <v>541.2389422391806</v>
       </c>
       <c r="D7" t="n">
-        <v>374.9819725334128</v>
+        <v>541.2389422391806</v>
       </c>
       <c r="E7" t="n">
-        <v>208.7737666862663</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F7" t="n">
-        <v>36.91199246082674</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K7" t="n">
-        <v>94.40332068498475</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L7" t="n">
-        <v>449.0926419794055</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M7" t="n">
-        <v>840.2784369496563</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N7" t="n">
-        <v>1217.769947825692</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O7" t="n">
-        <v>1573.198076505455</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P7" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
@@ -4759,16 +4761,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V7" t="n">
-        <v>1563.888155649366</v>
+        <v>1563.888155649365</v>
       </c>
       <c r="W7" t="n">
-        <v>1289.035751821879</v>
+        <v>1289.035751821878</v>
       </c>
       <c r="X7" t="n">
         <v>1046.471855267684</v>
       </c>
       <c r="Y7" t="n">
-        <v>820.1290869574259</v>
+        <v>820.1290869574257</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.013114123569</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C8" t="n">
-        <v>888.013114123569</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D8" t="n">
-        <v>888.013114123569</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E8" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L8" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M8" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N8" t="n">
-        <v>493.6978991635576</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O8" t="n">
-        <v>950.4838058662885</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="P8" t="n">
-        <v>1407.269712569019</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q8" t="n">
         <v>1728.043288159434</v>
@@ -4832,22 +4834,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T8" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U8" t="n">
-        <v>1366.319142682382</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V8" t="n">
-        <v>1293.350384168679</v>
+        <v>1670.208975329372</v>
       </c>
       <c r="W8" t="n">
-        <v>1293.350384168679</v>
+        <v>1273.817625629719</v>
       </c>
       <c r="X8" t="n">
-        <v>1293.350384168679</v>
+        <v>862.0976267974665</v>
       </c>
       <c r="Y8" t="n">
-        <v>888.013114123569</v>
+        <v>456.7603567523568</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I9" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J9" t="n">
-        <v>36.9119924608267</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K9" t="n">
-        <v>36.9119924608267</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L9" t="n">
-        <v>36.9119924608267</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M9" t="n">
-        <v>493.6978991635576</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N9" t="n">
-        <v>850.0084995511718</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O9" t="n">
-        <v>1306.794406253903</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="P9" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4911,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4920,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>911.6745856373313</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C10" t="n">
-        <v>739.7020225162473</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D10" t="n">
-        <v>576.385249643018</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E10" t="n">
-        <v>410.1770437958716</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F10" t="n">
-        <v>238.315269570432</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G10" t="n">
-        <v>72.05829986466412</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K10" t="n">
         <v>263.4395936666639</v>
@@ -4969,7 +4971,7 @@
         <v>618.1289149610848</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N10" t="n">
         <v>1199.572282439673</v>
@@ -4987,25 +4989,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1845.599623041337</v>
+        <v>1776.072293530599</v>
       </c>
       <c r="T10" t="n">
-        <v>1845.599623041337</v>
+        <v>1532.732945756499</v>
       </c>
       <c r="U10" t="n">
-        <v>1845.599623041337</v>
+        <v>1252.548497256803</v>
       </c>
       <c r="V10" t="n">
-        <v>1845.599623041337</v>
+        <v>970.8370298648322</v>
       </c>
       <c r="W10" t="n">
-        <v>1570.74721921385</v>
+        <v>695.9846260373453</v>
       </c>
       <c r="X10" t="n">
-        <v>1328.183322659655</v>
+        <v>453.4207294831504</v>
       </c>
       <c r="Y10" t="n">
-        <v>1101.840554349397</v>
+        <v>227.0779611728924</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1433.879624209084</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="C11" t="n">
-        <v>1006.978894222384</v>
+        <v>1418.698893054637</v>
       </c>
       <c r="D11" t="n">
-        <v>583.6862734073845</v>
+        <v>995.406272239637</v>
       </c>
       <c r="E11" t="n">
-        <v>157.7093335552421</v>
+        <v>569.4293323874946</v>
       </c>
       <c r="F11" t="n">
-        <v>157.7093335552421</v>
+        <v>144.3051505768948</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K11" t="n">
         <v>493.6978991635576</v>
       </c>
       <c r="L11" t="n">
-        <v>932.7282368344229</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M11" t="n">
-        <v>932.7282368344229</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N11" t="n">
-        <v>932.7282368344229</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O11" t="n">
-        <v>1389.514143537154</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P11" t="n">
-        <v>1389.514143537154</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q11" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R11" t="n">
         <v>1845.599623041337</v>
@@ -5081,10 +5083,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X11" t="n">
-        <v>1433.879624209084</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y11" t="n">
-        <v>1433.879624209084</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C12" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E12" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F12" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H12" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I12" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J12" t="n">
         <v>308.6094817404178</v>
@@ -5124,22 +5126,22 @@
         <v>308.6094817404178</v>
       </c>
       <c r="L12" t="n">
+        <v>308.6094817404178</v>
+      </c>
+      <c r="M12" t="n">
         <v>765.3953884431487</v>
       </c>
-      <c r="M12" t="n">
-        <v>1222.18129514588</v>
-      </c>
       <c r="N12" t="n">
-        <v>1222.18129514588</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O12" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P12" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q12" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R12" t="n">
         <v>1845.599623041337</v>
@@ -5148,7 +5150,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U12" t="n">
         <v>1437.627243819906</v>
@@ -5157,13 +5159,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W12" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X12" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y12" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>911.6745856373313</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C13" t="n">
-        <v>739.7020225162473</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D13" t="n">
-        <v>576.385249643018</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E13" t="n">
-        <v>410.1770437958716</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F13" t="n">
-        <v>238.315269570432</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G13" t="n">
-        <v>72.05829986466412</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082674</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="K13" t="n">
-        <v>263.4395936666639</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L13" t="n">
-        <v>618.1289149610848</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M13" t="n">
-        <v>1009.314709931336</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N13" t="n">
-        <v>1386.806220807371</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O13" t="n">
-        <v>1742.234349487134</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P13" t="n">
         <v>1845.599623041337</v>
@@ -5221,28 +5223,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R13" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S13" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T13" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U13" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="V13" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="W13" t="n">
-        <v>1570.74721921385</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X13" t="n">
-        <v>1328.183322659655</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1101.840554349397</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1845.599623041337</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C14" t="n">
-        <v>1418.698893054637</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D14" t="n">
-        <v>995.4062722396372</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E14" t="n">
-        <v>569.4293323874948</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F14" t="n">
-        <v>144.305150576895</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K14" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L14" t="n">
-        <v>493.6978991635576</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="M14" t="n">
-        <v>932.027809635875</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N14" t="n">
+        <v>932.0278096358751</v>
+      </c>
+      <c r="O14" t="n">
         <v>1388.813716338606</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1845.599623041337</v>
       </c>
       <c r="P14" t="n">
         <v>1845.599623041337</v>
@@ -5312,16 +5314,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V14" t="n">
-        <v>1845.599623041337</v>
+        <v>1670.208975329372</v>
       </c>
       <c r="W14" t="n">
-        <v>1845.599623041337</v>
+        <v>1273.817625629719</v>
       </c>
       <c r="X14" t="n">
-        <v>1845.599623041337</v>
+        <v>862.0976267974665</v>
       </c>
       <c r="Y14" t="n">
-        <v>1845.599623041337</v>
+        <v>456.7603567523568</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C15" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E15" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F15" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H15" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I15" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J15" t="n">
-        <v>36.91199246082674</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K15" t="n">
-        <v>36.91199246082674</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L15" t="n">
-        <v>36.91199246082674</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="M15" t="n">
-        <v>493.6978991635576</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="N15" t="n">
-        <v>950.4838058662885</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O15" t="n">
-        <v>1407.269712569019</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P15" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q15" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R15" t="n">
         <v>1845.599623041337</v>
@@ -5385,7 +5387,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U15" t="n">
         <v>1437.627243819906</v>
@@ -5394,13 +5396,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W15" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X15" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y15" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.4393219715645</v>
+        <v>911.6745856373311</v>
       </c>
       <c r="C16" t="n">
-        <v>36.91199246082674</v>
+        <v>739.7020225162471</v>
       </c>
       <c r="D16" t="n">
-        <v>36.91199246082674</v>
+        <v>576.3852496430178</v>
       </c>
       <c r="E16" t="n">
-        <v>36.91199246082674</v>
+        <v>410.1770437958713</v>
       </c>
       <c r="F16" t="n">
-        <v>36.91199246082674</v>
+        <v>238.3152695704318</v>
       </c>
       <c r="G16" t="n">
-        <v>36.91199246082674</v>
+        <v>72.05829986466389</v>
       </c>
       <c r="H16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K16" t="n">
         <v>263.4395936666639</v>
@@ -5443,13 +5445,13 @@
         <v>618.1289149610848</v>
       </c>
       <c r="M16" t="n">
-        <v>1009.314709931336</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N16" t="n">
-        <v>1386.806220807371</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O16" t="n">
-        <v>1742.234349487134</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P16" t="n">
         <v>1845.599623041337</v>
@@ -5464,22 +5466,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T16" t="n">
-        <v>1602.260275267237</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U16" t="n">
-        <v>1322.075826767541</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V16" t="n">
-        <v>1040.36435937557</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W16" t="n">
-        <v>765.5119555480831</v>
+        <v>1570.74721921385</v>
       </c>
       <c r="X16" t="n">
-        <v>522.9480589938881</v>
+        <v>1328.183322659655</v>
       </c>
       <c r="Y16" t="n">
-        <v>296.6052906836302</v>
+        <v>1101.840554349397</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>608.6939898724443</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="C17" t="n">
-        <v>181.7932598857444</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D17" t="n">
-        <v>181.7932598857444</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E17" t="n">
-        <v>181.7932598857444</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F17" t="n">
-        <v>181.7932598857444</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G17" t="n">
-        <v>181.7932598857444</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J17" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K17" t="n">
-        <v>36.91199246082674</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="L17" t="n">
-        <v>36.91199246082674</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="M17" t="n">
-        <v>493.6978991635576</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="N17" t="n">
-        <v>950.4838058662885</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O17" t="n">
-        <v>1389.514143537154</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P17" t="n">
-        <v>1389.514143537154</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q17" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R17" t="n">
         <v>1845.599623041337</v>
@@ -5555,10 +5557,10 @@
         <v>1845.599623041337</v>
       </c>
       <c r="X17" t="n">
-        <v>1433.879624209084</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y17" t="n">
-        <v>1028.542354163974</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="18">
@@ -5574,43 +5576,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E18" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F18" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I18" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J18" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K18" t="n">
-        <v>36.91199246082674</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L18" t="n">
-        <v>475.2419029331439</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="M18" t="n">
-        <v>932.0278096358747</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N18" t="n">
+        <v>932.0278096358751</v>
+      </c>
+      <c r="O18" t="n">
+        <v>932.0278096358751</v>
+      </c>
+      <c r="P18" t="n">
         <v>1388.813716338606</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1845.599623041337</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1845.599623041337</v>
       </c>
       <c r="Q18" t="n">
         <v>1845.599623041337</v>
@@ -5647,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.8845555819107</v>
+        <v>126.4702432027646</v>
       </c>
       <c r="C19" t="n">
-        <v>36.91199246082674</v>
+        <v>126.4702432027646</v>
       </c>
       <c r="D19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K19" t="n">
-        <v>36.91199246082674</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6013137552475</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M19" t="n">
-        <v>782.7871087254983</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N19" t="n">
-        <v>1160.278619601534</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O19" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P19" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q19" t="n">
         <v>1845.599623041337</v>
@@ -5698,25 +5700,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S19" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T19" t="n">
-        <v>1704.705508877583</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U19" t="n">
-        <v>1424.521060377887</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V19" t="n">
-        <v>1142.809592985916</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="W19" t="n">
-        <v>867.9571891584293</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="X19" t="n">
-        <v>625.3932926042344</v>
+        <v>352.8130115130226</v>
       </c>
       <c r="Y19" t="n">
-        <v>399.0505242939764</v>
+        <v>126.4702432027646</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>887.3827134031587</v>
+        <v>1425.751258749807</v>
       </c>
       <c r="C20" t="n">
-        <v>887.3827134031587</v>
+        <v>998.8505287631067</v>
       </c>
       <c r="D20" t="n">
-        <v>887.3827134031587</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E20" t="n">
-        <v>746.7056659857641</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F20" t="n">
-        <v>746.7056659857641</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G20" t="n">
-        <v>342.3666035752127</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924753</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K20" t="n">
-        <v>44.49822504924753</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L20" t="n">
-        <v>44.49822504924753</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="M20" t="n">
-        <v>44.49822504924753</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N20" t="n">
-        <v>595.1637600336857</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O20" t="n">
-        <v>1100.603903091853</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P20" t="n">
-        <v>1651.269438076291</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580474</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>2120.543958335517</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T20" t="n">
-        <v>1899.61838738015</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U20" t="n">
-        <v>1641.263477976562</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V20" t="n">
-        <v>1283.774063102812</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W20" t="n">
-        <v>887.3827134031587</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X20" t="n">
-        <v>887.3827134031587</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y20" t="n">
-        <v>887.3827134031587</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>611.6217160807028</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C21" t="n">
-        <v>494.1158125982075</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134926</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864298</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F21" t="n">
-        <v>191.928090069334</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693795</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924753</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49822504924753</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L21" t="n">
-        <v>595.1637600336857</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="M21" t="n">
-        <v>595.1637600336857</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N21" t="n">
-        <v>751.8547856608809</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O21" t="n">
-        <v>1302.520320645319</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S21" t="n">
-        <v>1771.861608191012</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1629.98167248869</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U21" t="n">
-        <v>1445.213476408327</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V21" t="n">
-        <v>1240.240337547593</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1043.71896038081</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X21" t="n">
-        <v>880.2416141474731</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y21" t="n">
-        <v>740.5487255007655</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>737.4839554633641</v>
+        <v>911.6745856373311</v>
       </c>
       <c r="C22" t="n">
-        <v>565.51139234228</v>
+        <v>739.7020225162471</v>
       </c>
       <c r="D22" t="n">
-        <v>565.51139234228</v>
+        <v>576.3852496430178</v>
       </c>
       <c r="E22" t="n">
-        <v>565.51139234228</v>
+        <v>410.1770437958713</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>238.3152695704318</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>72.05829986466389</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J22" t="n">
-        <v>101.9895532734055</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K22" t="n">
-        <v>328.5171544792427</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L22" t="n">
-        <v>683.2064757736634</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M22" t="n">
-        <v>1074.392270743914</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N22" t="n">
-        <v>1451.88378161995</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O22" t="n">
-        <v>1807.311910299713</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P22" t="n">
-        <v>2097.911122221614</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q22" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>2177.872639149549</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S22" t="n">
-        <v>2007.737591668684</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.398243894584</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U22" t="n">
-        <v>1484.213795394888</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V22" t="n">
-        <v>1202.502328002917</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W22" t="n">
-        <v>927.6499241754298</v>
+        <v>1570.74721921385</v>
       </c>
       <c r="X22" t="n">
-        <v>927.6499241754298</v>
+        <v>1328.183322659655</v>
       </c>
       <c r="Y22" t="n">
-        <v>927.6499241754298</v>
+        <v>1101.840554349397</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>342.3666035752127</v>
+        <v>864.5436756863778</v>
       </c>
       <c r="C23" t="n">
-        <v>342.3666035752127</v>
+        <v>864.5436756863778</v>
       </c>
       <c r="D23" t="n">
-        <v>342.3666035752127</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="E23" t="n">
-        <v>342.3666035752127</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="F23" t="n">
-        <v>342.3666035752127</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G23" t="n">
-        <v>342.3666035752127</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J23" t="n">
-        <v>407.101683866143</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K23" t="n">
-        <v>957.7672188505812</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L23" t="n">
-        <v>1006.023847611597</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M23" t="n">
-        <v>1556.689382596036</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N23" t="n">
-        <v>2107.354917580474</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O23" t="n">
-        <v>2107.354917580474</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="P23" t="n">
-        <v>2107.354917580474</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q23" t="n">
-        <v>2107.354917580474</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S23" t="n">
-        <v>2120.543958335517</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T23" t="n">
-        <v>1899.61838738015</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U23" t="n">
-        <v>1641.263477976562</v>
+        <v>1681.60094456374</v>
       </c>
       <c r="V23" t="n">
-        <v>1283.774063102812</v>
+        <v>1681.60094456374</v>
       </c>
       <c r="W23" t="n">
-        <v>1173.934966698996</v>
+        <v>1681.60094456374</v>
       </c>
       <c r="X23" t="n">
-        <v>762.2149678667428</v>
+        <v>1269.880945731487</v>
       </c>
       <c r="Y23" t="n">
-        <v>762.2149678667428</v>
+        <v>864.5436756863778</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>611.6217160807028</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C24" t="n">
-        <v>494.1158125982075</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D24" t="n">
-        <v>390.2758541134926</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E24" t="n">
-        <v>285.5739203864298</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F24" t="n">
-        <v>191.928090069334</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693795</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J24" t="n">
-        <v>316.1957143288386</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K24" t="n">
-        <v>866.8612493132769</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L24" t="n">
-        <v>866.8612493132769</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M24" t="n">
-        <v>1417.526784297715</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N24" t="n">
-        <v>1417.526784297715</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O24" t="n">
-        <v>1853.185855629757</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P24" t="n">
-        <v>1853.185855629757</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q24" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R24" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S24" t="n">
-        <v>1771.861608191012</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T24" t="n">
-        <v>1629.98167248869</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U24" t="n">
-        <v>1445.213476408327</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V24" t="n">
-        <v>1240.240337547593</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W24" t="n">
-        <v>1043.71896038081</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X24" t="n">
-        <v>880.2416141474731</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y24" t="n">
-        <v>740.5487255007655</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.8830790816388</v>
+        <v>904.815522072847</v>
       </c>
       <c r="C25" t="n">
-        <v>811.9105159605548</v>
+        <v>732.842958951763</v>
       </c>
       <c r="D25" t="n">
-        <v>648.5937430873255</v>
+        <v>569.5261860785337</v>
       </c>
       <c r="E25" t="n">
-        <v>482.385537240179</v>
+        <v>403.3179802313872</v>
       </c>
       <c r="F25" t="n">
-        <v>310.5237630147394</v>
+        <v>231.4562060059476</v>
       </c>
       <c r="G25" t="n">
-        <v>144.2667933089716</v>
+        <v>65.19923630017976</v>
       </c>
       <c r="H25" t="n">
-        <v>144.2667933089716</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J25" t="n">
-        <v>101.9895532734055</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K25" t="n">
-        <v>328.5171544792427</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L25" t="n">
-        <v>683.2064757736634</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M25" t="n">
-        <v>1074.392270743914</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N25" t="n">
-        <v>1451.88378161995</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O25" t="n">
-        <v>1807.311910299713</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P25" t="n">
-        <v>2097.911122221614</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q25" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R25" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S25" t="n">
-        <v>2054.776204981511</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T25" t="n">
-        <v>2054.776204981511</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U25" t="n">
-        <v>1774.591756481815</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V25" t="n">
-        <v>1774.591756481815</v>
+        <v>1563.888155649365</v>
       </c>
       <c r="W25" t="n">
-        <v>1499.739352654328</v>
+        <v>1563.888155649365</v>
       </c>
       <c r="X25" t="n">
-        <v>1257.175456100133</v>
+        <v>1321.324259095171</v>
       </c>
       <c r="Y25" t="n">
-        <v>1174.049047793704</v>
+        <v>1094.981490784913</v>
       </c>
     </row>
     <row r="26">
@@ -6200,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1845.599623041337</v>
+        <v>793.1056889621871</v>
       </c>
       <c r="C26" t="n">
-        <v>1845.599623041337</v>
+        <v>793.1056889621871</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.220555060086</v>
+        <v>793.1056889621871</v>
       </c>
       <c r="E26" t="n">
-        <v>1164.243615207943</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="F26" t="n">
-        <v>739.1194333973433</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G26" t="n">
-        <v>334.7803709867919</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H26" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I26" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J26" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K26" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L26" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M26" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N26" t="n">
-        <v>950.4838058662885</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O26" t="n">
-        <v>1271.257381456703</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P26" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q26" t="n">
         <v>1728.043288159434</v>
@@ -6254,22 +6256,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T26" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U26" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V26" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="W26" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="X26" t="n">
-        <v>1845.599623041337</v>
+        <v>1212.954053253717</v>
       </c>
       <c r="Y26" t="n">
-        <v>1845.599623041337</v>
+        <v>1212.954053253717</v>
       </c>
     </row>
     <row r="27">
@@ -6285,43 +6287,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D27" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E27" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F27" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H27" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I27" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J27" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K27" t="n">
-        <v>493.6978991635576</v>
+        <v>393.2225928484411</v>
       </c>
       <c r="L27" t="n">
-        <v>950.4838058662885</v>
+        <v>393.2225928484411</v>
       </c>
       <c r="M27" t="n">
-        <v>950.4838058662885</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="N27" t="n">
-        <v>950.4838058662885</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O27" t="n">
-        <v>950.4838058662885</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P27" t="n">
-        <v>1407.269712569019</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q27" t="n">
         <v>1763.580312956633</v>
@@ -6376,19 +6378,19 @@
         <v>180.7082609526723</v>
       </c>
       <c r="H28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K28" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L28" t="n">
-        <v>430.8949765933859</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M28" t="n">
         <v>822.0807715636367</v>
@@ -6412,16 +6414,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T28" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U28" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="V28" t="n">
-        <v>1679.397180301858</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="W28" t="n">
-        <v>1679.397180301858</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="X28" t="n">
         <v>1436.833283747663</v>
@@ -6437,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>866.3752366819779</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="C29" t="n">
-        <v>866.3752366819779</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="D29" t="n">
-        <v>866.3752366819779</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="E29" t="n">
-        <v>866.3752366819779</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="F29" t="n">
         <v>441.2510548713781</v>
       </c>
       <c r="G29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J29" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K29" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L29" t="n">
-        <v>493.6978991635576</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="M29" t="n">
-        <v>950.4838058662885</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N29" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O29" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P29" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q29" t="n">
         <v>1845.599623041337</v>
@@ -6491,22 +6493,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T29" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U29" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V29" t="n">
-        <v>1845.599623041337</v>
+        <v>1267.184637212219</v>
       </c>
       <c r="W29" t="n">
-        <v>1449.208273341684</v>
+        <v>870.7932875125662</v>
       </c>
       <c r="X29" t="n">
-        <v>1037.488274509431</v>
+        <v>870.7932875125662</v>
       </c>
       <c r="Y29" t="n">
-        <v>866.3752366819779</v>
+        <v>465.4560174674565</v>
       </c>
     </row>
     <row r="30">
@@ -6522,43 +6524,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D30" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E30" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F30" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H30" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I30" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J30" t="n">
-        <v>36.91199246082674</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K30" t="n">
-        <v>36.91199246082674</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="L30" t="n">
-        <v>475.2419029331439</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="M30" t="n">
-        <v>932.0278096358747</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="N30" t="n">
+        <v>1222.18129514588</v>
+      </c>
+      <c r="O30" t="n">
         <v>1388.813716338606</v>
       </c>
-      <c r="O30" t="n">
-        <v>1845.599623041337</v>
-      </c>
       <c r="P30" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q30" t="n">
         <v>1845.599623041337</v>
@@ -6595,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>106.4393219715645</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="C31" t="n">
-        <v>36.91199246082674</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="D31" t="n">
-        <v>36.91199246082674</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="E31" t="n">
-        <v>36.91199246082674</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F31" t="n">
-        <v>36.91199246082674</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K31" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L31" t="n">
-        <v>430.8949765933859</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M31" t="n">
-        <v>822.0807715636367</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N31" t="n">
-        <v>1199.572282439673</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O31" t="n">
         <v>1555.000411119436</v>
@@ -6649,22 +6651,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T31" t="n">
-        <v>1602.260275267237</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U31" t="n">
-        <v>1322.075826767541</v>
+        <v>1590.667241188011</v>
       </c>
       <c r="V31" t="n">
-        <v>1040.36435937557</v>
+        <v>1308.95577379604</v>
       </c>
       <c r="W31" t="n">
-        <v>765.5119555480831</v>
+        <v>1034.103369968553</v>
       </c>
       <c r="X31" t="n">
-        <v>522.9480589938881</v>
+        <v>791.5394734143578</v>
       </c>
       <c r="Y31" t="n">
-        <v>296.6052906836302</v>
+        <v>565.1967051040998</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>36.91199246082674</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="C32" t="n">
-        <v>36.91199246082674</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D32" t="n">
-        <v>36.91199246082674</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E32" t="n">
-        <v>36.91199246082674</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J32" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K32" t="n">
-        <v>815.1719019525203</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L32" t="n">
-        <v>815.1719019525203</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M32" t="n">
-        <v>815.1719019525203</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="N32" t="n">
-        <v>815.1719019525203</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O32" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P32" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q32" t="n">
         <v>1728.043288159434</v>
@@ -6734,16 +6736,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V32" t="n">
-        <v>1670.208975329372</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W32" t="n">
-        <v>1273.817625629719</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X32" t="n">
-        <v>862.0976267974665</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y32" t="n">
-        <v>456.7603567523568</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="33">
@@ -6759,46 +6761,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D33" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E33" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F33" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I33" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J33" t="n">
-        <v>316.0561247023297</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K33" t="n">
-        <v>772.8420314050605</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="L33" t="n">
-        <v>1229.627938107791</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="M33" t="n">
-        <v>1229.627938107791</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="N33" t="n">
-        <v>1229.627938107791</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="O33" t="n">
-        <v>1306.794406253902</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P33" t="n">
-        <v>1763.580312956633</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q33" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R33" t="n">
         <v>1845.599623041337</v>
@@ -6832,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>349.7786697456644</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C34" t="n">
-        <v>177.8061066245805</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D34" t="n">
-        <v>177.8061066245805</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E34" t="n">
-        <v>36.91199246082674</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F34" t="n">
-        <v>36.91199246082674</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G34" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H34" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J34" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K34" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L34" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M34" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N34" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O34" t="n">
-        <v>1555.000411119436</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P34" t="n">
         <v>1845.599623041337</v>
@@ -6889,19 +6891,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U34" t="n">
-        <v>1565.415174541641</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V34" t="n">
-        <v>1283.70370714967</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W34" t="n">
-        <v>1008.851303322183</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X34" t="n">
-        <v>766.287406767988</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y34" t="n">
-        <v>539.9446384577301</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>887.1053432625264</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="C35" t="n">
-        <v>460.2046132758265</v>
+        <v>1006.978894222384</v>
       </c>
       <c r="D35" t="n">
-        <v>36.91199246082674</v>
+        <v>1006.978894222384</v>
       </c>
       <c r="E35" t="n">
-        <v>36.91199246082674</v>
+        <v>581.0019543702416</v>
       </c>
       <c r="F35" t="n">
-        <v>36.91199246082674</v>
+        <v>155.8777725596418</v>
       </c>
       <c r="G35" t="n">
-        <v>36.91199246082674</v>
+        <v>155.8777725596418</v>
       </c>
       <c r="H35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J35" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K35" t="n">
-        <v>815.1719019525203</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L35" t="n">
-        <v>815.1719019525203</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M35" t="n">
-        <v>815.1719019525203</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="N35" t="n">
-        <v>1271.957808655251</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="O35" t="n">
         <v>1271.957808655251</v>
@@ -6971,16 +6973,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V35" t="n">
-        <v>1704.162612139889</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W35" t="n">
-        <v>1704.162612139889</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X35" t="n">
-        <v>1292.442613307636</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y35" t="n">
-        <v>887.1053432625264</v>
+        <v>1433.879624209084</v>
       </c>
     </row>
     <row r="36">
@@ -6990,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C36" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D36" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E36" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F36" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H36" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I36" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J36" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K36" t="n">
-        <v>308.6094817404178</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L36" t="n">
-        <v>765.3953884431487</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.18129514588</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="N36" t="n">
-        <v>1222.18129514588</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="O36" t="n">
-        <v>1678.967201848611</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P36" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q36" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R36" t="n">
         <v>1845.599623041337</v>
@@ -7044,7 +7046,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U36" t="n">
         <v>1437.627243819906</v>
@@ -7053,13 +7055,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W36" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X36" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y36" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="37">
@@ -7069,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="C37" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="D37" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="E37" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="F37" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="G37" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H37" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K37" t="n">
-        <v>263.4395936666639</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L37" t="n">
-        <v>618.1289149610848</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.314709931336</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.806220807371</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O37" t="n">
-        <v>1742.234349487134</v>
+        <v>1515.706748281297</v>
       </c>
       <c r="P37" t="n">
-        <v>1845.599623041337</v>
+        <v>1806.305960203198</v>
       </c>
       <c r="Q37" t="n">
         <v>1845.599623041337</v>
@@ -7120,25 +7122,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S37" t="n">
-        <v>1776.072293530599</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T37" t="n">
-        <v>1532.732945756499</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U37" t="n">
-        <v>1252.548497256803</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V37" t="n">
-        <v>970.8370298648322</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W37" t="n">
-        <v>695.9846260373453</v>
+        <v>795.7531942970693</v>
       </c>
       <c r="X37" t="n">
-        <v>453.4207294831504</v>
+        <v>553.1892977428744</v>
       </c>
       <c r="Y37" t="n">
-        <v>227.0779611728924</v>
+        <v>326.8465294326164</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>833.3639490643454</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="C38" t="n">
-        <v>833.3639490643454</v>
+        <v>1715.64479734912</v>
       </c>
       <c r="D38" t="n">
-        <v>462.0361742714265</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="E38" t="n">
-        <v>462.0361742714265</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="F38" t="n">
-        <v>36.91199246082674</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J38" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K38" t="n">
-        <v>815.1719019525203</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L38" t="n">
-        <v>815.1719019525203</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M38" t="n">
-        <v>815.1719019525203</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N38" t="n">
-        <v>815.1719019525203</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="O38" t="n">
-        <v>815.1719019525203</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P38" t="n">
-        <v>1271.957808655251</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q38" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R38" t="n">
         <v>1845.599623041337</v>
@@ -7205,19 +7207,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U38" t="n">
-        <v>1587.244713637749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V38" t="n">
-        <v>1229.755298763999</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W38" t="n">
-        <v>833.3639490643454</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X38" t="n">
-        <v>833.3639490643454</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y38" t="n">
-        <v>833.3639490643454</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="39">
@@ -7233,40 +7235,40 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E39" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F39" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H39" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I39" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J39" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K39" t="n">
         <v>493.6978991635576</v>
       </c>
       <c r="L39" t="n">
-        <v>493.6978991635576</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M39" t="n">
-        <v>950.4838058662885</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N39" t="n">
-        <v>950.4838058662885</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O39" t="n">
-        <v>950.4838058662885</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P39" t="n">
         <v>1388.813716338606</v>
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1020.32454672534</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C40" t="n">
-        <v>848.3519836042556</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D40" t="n">
-        <v>685.0352107310263</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E40" t="n">
-        <v>518.8270048838798</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F40" t="n">
-        <v>346.9652306584402</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G40" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H40" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K40" t="n">
         <v>263.4395936666639</v>
@@ -7354,28 +7356,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R40" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S40" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T40" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U40" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="V40" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="W40" t="n">
-        <v>1679.397180301858</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="X40" t="n">
-        <v>1436.833283747663</v>
+        <v>1142.52271791935</v>
       </c>
       <c r="Y40" t="n">
-        <v>1210.490515437405</v>
+        <v>1142.52271791935</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>888.9369042581264</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="C41" t="n">
         <v>462.0361742714265</v>
@@ -7397,40 +7399,40 @@
         <v>462.0361742714265</v>
       </c>
       <c r="F41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K41" t="n">
-        <v>475.2419029331441</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L41" t="n">
-        <v>932.027809635875</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M41" t="n">
-        <v>1388.813716338606</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N41" t="n">
-        <v>1845.599623041337</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O41" t="n">
-        <v>1845.599623041337</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P41" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q41" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R41" t="n">
         <v>1845.599623041337</v>
@@ -7439,22 +7441,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T41" t="n">
-        <v>1845.599623041337</v>
+        <v>1689.995887094862</v>
       </c>
       <c r="U41" t="n">
-        <v>1845.599623041337</v>
+        <v>1689.995887094862</v>
       </c>
       <c r="V41" t="n">
-        <v>1845.599623041337</v>
+        <v>1689.995887094862</v>
       </c>
       <c r="W41" t="n">
-        <v>1845.599623041337</v>
+        <v>1293.604537395209</v>
       </c>
       <c r="X41" t="n">
-        <v>1714.122538594766</v>
+        <v>881.8845385629565</v>
       </c>
       <c r="Y41" t="n">
-        <v>1308.785268549656</v>
+        <v>881.8845385629565</v>
       </c>
     </row>
     <row r="42">
@@ -7470,46 +7472,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D42" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E42" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F42" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I42" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J42" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K42" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L42" t="n">
-        <v>475.2419029331439</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M42" t="n">
-        <v>475.2419029331439</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N42" t="n">
-        <v>932.0278096358747</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O42" t="n">
-        <v>932.0278096358747</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="P42" t="n">
-        <v>1388.813716338606</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="Q42" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R42" t="n">
         <v>1845.599623041337</v>
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1020.32454672534</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="C43" t="n">
-        <v>848.3519836042556</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="D43" t="n">
-        <v>685.0352107310263</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="E43" t="n">
-        <v>518.8270048838798</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="F43" t="n">
         <v>346.9652306584402</v>
@@ -7561,25 +7563,25 @@
         <v>180.7082609526723</v>
       </c>
       <c r="H43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J43" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K43" t="n">
-        <v>263.4395936666639</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L43" t="n">
-        <v>618.1289149610848</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M43" t="n">
-        <v>1009.314709931336</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.806220807371</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O43" t="n">
         <v>1555.000411119436</v>
@@ -7591,28 +7593,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R43" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S43" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T43" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U43" t="n">
-        <v>1565.415174541641</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V43" t="n">
-        <v>1565.415174541641</v>
+        <v>823.1906985818778</v>
       </c>
       <c r="W43" t="n">
-        <v>1565.415174541641</v>
+        <v>548.3382947543907</v>
       </c>
       <c r="X43" t="n">
-        <v>1436.833283747663</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="Y43" t="n">
-        <v>1210.490515437405</v>
+        <v>346.9652306584402</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>725.7385018928744</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="C44" t="n">
-        <v>725.7385018928744</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D44" t="n">
-        <v>355.463756029163</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E44" t="n">
-        <v>355.463756029163</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F44" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G44" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H44" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I44" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J44" t="n">
-        <v>391.9292186893015</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K44" t="n">
-        <v>391.9292186893015</v>
+        <v>475.942330131692</v>
       </c>
       <c r="L44" t="n">
-        <v>622.9191018963475</v>
+        <v>475.942330131692</v>
       </c>
       <c r="M44" t="n">
-        <v>985.825380317371</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="N44" t="n">
-        <v>1348.731658738395</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="O44" t="n">
-        <v>1348.731658738395</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="P44" t="n">
-        <v>1348.731658738395</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q44" t="n">
-        <v>1348.731658738395</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R44" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>1466.287993620297</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T44" t="n">
-        <v>1466.287993620297</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="U44" t="n">
-        <v>1466.287993620297</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="V44" t="n">
-        <v>1466.287993620297</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="W44" t="n">
-        <v>1466.287993620297</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="X44" t="n">
-        <v>1096.013247756586</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="Y44" t="n">
-        <v>725.7385018928744</v>
+        <v>1738.206464925269</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>449.4273273490749</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C45" t="n">
-        <v>331.9214238665797</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D45" t="n">
-        <v>228.0814653818647</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E45" t="n">
-        <v>123.3795316548019</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F45" t="n">
-        <v>123.3795316548019</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G45" t="n">
-        <v>29.32575987240594</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H45" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I45" t="n">
-        <v>36.77240283431778</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J45" t="n">
-        <v>308.4698921139089</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K45" t="n">
-        <v>308.4698921139089</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L45" t="n">
-        <v>308.4698921139089</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M45" t="n">
-        <v>308.4698921139089</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N45" t="n">
-        <v>308.4698921139089</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O45" t="n">
-        <v>658.4561266935468</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P45" t="n">
-        <v>1021.36240511457</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q45" t="n">
-        <v>1384.268683535594</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R45" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S45" t="n">
-        <v>1466.287993620297</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>1466.287993620297</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U45" t="n">
-        <v>1283.019087676699</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V45" t="n">
-        <v>1078.045948815965</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>881.5245716491823</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X45" t="n">
-        <v>718.0472254158452</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y45" t="n">
-        <v>578.3543367691376</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>532.3629562162916</v>
+        <v>59.40070865873727</v>
       </c>
       <c r="C46" t="n">
-        <v>360.3903930952076</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D46" t="n">
-        <v>360.3903930952076</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E46" t="n">
-        <v>194.1821872480612</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F46" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G46" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H46" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I46" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J46" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K46" t="n">
-        <v>29.32575987240594</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L46" t="n">
-        <v>29.32575987240594</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M46" t="n">
-        <v>330.3542443568474</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N46" t="n">
-        <v>693.260522777871</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O46" t="n">
-        <v>1048.688651457634</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P46" t="n">
-        <v>1339.287863379535</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q46" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>1466.287993620297</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S46" t="n">
-        <v>1466.287993620297</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T46" t="n">
-        <v>1466.287993620297</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U46" t="n">
-        <v>1466.287993620297</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V46" t="n">
-        <v>1466.287993620297</v>
+        <v>993.3257460627428</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.43558979281</v>
+        <v>718.4733422352558</v>
       </c>
       <c r="X46" t="n">
-        <v>948.8716932386152</v>
+        <v>475.9094456810609</v>
       </c>
       <c r="Y46" t="n">
-        <v>722.5289249283572</v>
+        <v>249.5666773708029</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>112.2559661033164</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M2" t="n">
-        <v>480.1887482250049</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N2" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>36.12467460459804</v>
@@ -8052,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>183.3088020988906</v>
+        <v>382.4247840754562</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q3" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K4" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8149,7 +8151,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>381.5174992961649</v>
+        <v>363.1360191082666</v>
       </c>
       <c r="P4" t="n">
         <v>315.9153581548562</v>
@@ -8216,28 +8218,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>478.5220861203824</v>
+        <v>360.4858157331554</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N6" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>108.6396787202253</v>
+        <v>101.1178171425369</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8371,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8386,13 +8388,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>381.5174992961649</v>
+        <v>357.6439066834782</v>
       </c>
       <c r="P7" t="n">
-        <v>297.533877966958</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8455,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
@@ -8465,13 +8467,13 @@
         <v>498.6795285947802</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>361.4046720736148</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q8" t="n">
-        <v>360.1383873221887</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
         <v>153.7764225027789</v>
@@ -8529,31 +8531,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>190.7148107956833</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N9" t="n">
-        <v>381.2527255747682</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q9" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8617,10 +8619,10 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
-        <v>228.5874162576999</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>402.0534574160406</v>
+        <v>212.9282671456378</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
@@ -8693,25 +8695,25 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L11" t="n">
-        <v>481.7770299789515</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M11" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O11" t="n">
-        <v>498.7908651163583</v>
+        <v>361.4046720736148</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,25 +8774,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>106.8108172115449</v>
       </c>
       <c r="O12" t="n">
-        <v>191.487466684572</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8845,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.63675598390187</v>
+        <v>60.32732450727401</v>
       </c>
       <c r="K13" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
@@ -8863,7 +8865,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
         <v>24.61956276478495</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L14" t="n">
-        <v>499.7119481929572</v>
+        <v>114.80340774113</v>
       </c>
       <c r="M14" t="n">
-        <v>480.1887482250049</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>498.7908651163583</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9003,31 +9005,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738759</v>
+        <v>106.8108172115449</v>
       </c>
       <c r="O15" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>464.5283265304018</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9091,7 +9093,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.7126065281028</v>
+        <v>228.5874162576999</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9100,7 +9102,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
         <v>24.61956276478495</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>454.912099255668</v>
       </c>
       <c r="L17" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O17" t="n">
-        <v>480.8559469023526</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,31 +9239,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
-        <v>465.2725720398024</v>
+        <v>183.3088020988909</v>
       </c>
       <c r="M18" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9322,25 +9324,25 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K19" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.7126065281028</v>
+        <v>228.5874162576999</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>292.925107980384</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>457.4595408934816</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N20" t="n">
-        <v>593.5074359500402</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O20" t="n">
-        <v>547.9365584046775</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9477,25 +9479,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L21" t="n">
-        <v>578.7428998298237</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>191.4123574746777</v>
       </c>
       <c r="N21" t="n">
-        <v>179.6167914733348</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378163</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P21" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9556,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K22" t="n">
         <v>249.7804132464869</v>
@@ -9565,7 +9567,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>417.7126065281028</v>
+        <v>228.5874162576999</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
@@ -9577,7 +9579,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9638,28 +9640,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>591.9924139104035</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L23" t="n">
-        <v>87.05611188819479</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>114.7742293394935</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9716,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>465.2725720398028</v>
       </c>
       <c r="M24" t="n">
-        <v>579.3245936279221</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>463.2315577343861</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P24" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9793,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
@@ -9805,7 +9807,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>212.9282671456378</v>
       </c>
       <c r="O25" t="n">
         <v>381.5174992961649</v>
@@ -9814,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N26" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>361.4046720736148</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
-        <v>498.9752675705655</v>
+        <v>457.4303624918454</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9948,31 +9950,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>483.7991395936675</v>
+        <v>100.3451612536479</v>
       </c>
       <c r="L27" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q27" t="n">
-        <v>382.6567356502047</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10033,13 +10035,13 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K28" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>417.7126065281028</v>
+        <v>228.5874162576999</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L29" t="n">
-        <v>499.7119481929572</v>
+        <v>114.80340774113</v>
       </c>
       <c r="M29" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N29" t="n">
-        <v>480.7446103807745</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O29" t="n">
         <v>37.3909593560241</v>
@@ -10130,7 +10132,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>35.03264989479647</v>
@@ -10188,28 +10190,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>465.2725720398024</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N30" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O30" t="n">
-        <v>484.5717954825564</v>
+        <v>191.487466684572</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10270,7 +10272,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K31" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
@@ -10282,7 +10284,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>381.5174992961649</v>
+        <v>192.3923090257622</v>
       </c>
       <c r="P31" t="n">
         <v>315.9153581548562</v>
@@ -10349,25 +10351,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>455.6196014764236</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>456.5787613602905</v>
       </c>
       <c r="N32" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10422,34 +10424,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O33" t="n">
-        <v>101.1178171425365</v>
+        <v>191.487466684572</v>
       </c>
       <c r="P33" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10522,7 +10524,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318252</v>
       </c>
       <c r="Q34" t="n">
         <v>24.61956276478495</v>
@@ -10586,19 +10588,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>455.6196014764236</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
-        <v>37.43126289943181</v>
+        <v>457.2862635810459</v>
       </c>
       <c r="N35" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P35" t="n">
         <v>37.5753618102313</v>
@@ -10662,25 +10664,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L36" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M36" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>381.2527255747681</v>
       </c>
       <c r="O36" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>107.2386302028318</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10744,7 +10746,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10759,10 +10761,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.61956276478495</v>
+        <v>64.31013128815719</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>455.6196014764236</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L38" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M38" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>480.7446103807745</v>
       </c>
       <c r="O38" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,19 +10907,19 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M39" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>465.9293750477955</v>
       </c>
       <c r="P39" t="n">
-        <v>464.5283265304016</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
         <v>484.1469440493127</v>
@@ -10996,7 +10998,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7901678844537</v>
+        <v>126.7901678844535</v>
       </c>
       <c r="Q40" t="n">
         <v>24.61956276478495</v>
@@ -11060,28 +11062,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
-        <v>478.5220861203824</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L41" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>361.589074527822</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,28 +11141,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L42" t="n">
-        <v>465.2725720398024</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q42" t="n">
-        <v>484.1469440493127</v>
+        <v>382.656735650205</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,13 +11217,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>361.8093214193388</v>
       </c>
       <c r="M43" t="n">
         <v>417.7126065281028</v>
@@ -11230,7 +11232,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>192.3923090257622</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>479.2295883411378</v>
       </c>
       <c r="L44" t="n">
-        <v>271.6351567831744</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
-        <v>404.0032613045061</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N44" t="n">
-        <v>403.8516212395203</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>465.8542658379013</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O45" t="n">
-        <v>376.6933387925636</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P45" t="n">
-        <v>388.342839609903</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>389.3190366940528</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11455,16 +11457,16 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L46" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>326.6446161383964</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>387.3208993806747</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
@@ -11473,7 +11475,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22547,10 +22549,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>421.717170453621</v>
@@ -22559,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>20.11751554195351</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,7 +22606,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>1.412009401357579</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -22705,25 +22707,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>101.4207812742432</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,16 +22758,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>206.3343440542548</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>289.7416114658721</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22790,7 +22792,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
@@ -22832,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>190.0643774436552</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
@@ -22942,10 +22944,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>82.41590324375555</v>
       </c>
       <c r="D7" t="n">
-        <v>79.50510837954224</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22954,7 +22956,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -23027,10 +23029,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -23072,19 +23074,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>281.6754497964465</v>
+        <v>180.2777794901684</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23179,22 +23181,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>107.5634614771281</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
         <v>98.77088257712678</v>
@@ -23227,16 +23229,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>99.6016407904262</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23267,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>280.7063041029746</v>
+        <v>293.9764452515385</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23321,7 +23323,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -23476,7 +23478,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>252.9025712339535</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>293.9764452515383</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
@@ -23552,16 +23554,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>180.2777794901684</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>101.4207812742427</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>107.5634614771284</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23704,13 +23706,13 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>309.3306541137075</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>151.4572399900371</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -23795,10 +23797,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>73.02093690997847</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
@@ -23938,10 +23940,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>101.4207812742428</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>309.3306541137074</v>
       </c>
       <c r="E20" t="n">
-        <v>282.4468935104003</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24017,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>60.06370925584716</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>107.5634614771284</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
@@ -24218,10 +24220,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
         <v>34.5479025439635</v>
@@ -24254,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>93.41266861673128</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>283.6867307628785</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>114.3539344059676</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,25 +24414,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>141.784196403791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>166.234417305411</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2.523008201943298</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24496,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>255.7713603095518</v>
@@ -24506,7 +24508,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24652,19 +24654,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>114.3539344059674</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>76.36553598427545</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>391.6869676784971</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -24689,7 +24691,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24731,22 +24733,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>231.88198989548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>101.4207812742427</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24847,10 +24849,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24889,10 +24891,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>24.99954597990629</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>309.3306541137075</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>400.2956717864458</v>
@@ -24974,16 +24976,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>180.2777794901682</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>25.06095076655879</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>206.334344054255</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25157,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>177.1135724428786</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -25211,7 +25213,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>213.8918799325795</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -25220,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25330,7 +25332,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>99.60164079042598</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>29.93882636149678</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25391,19 +25393,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>293.9764452515384</v>
       </c>
       <c r="D38" t="n">
-        <v>51.44519756186003</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.8896947407055</v>
@@ -25445,13 +25447,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>166.0590021200015</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -25609,13 +25611,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>107.5634614771281</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25679,7 +25681,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>64.6686166588037</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -25688,13 +25690,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>277.4404852418251</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>112.8421857026148</v>
+        <v>40.77892413366189</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25865,16 +25867,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>52.48769620177541</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>97.99632379730429</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -25913,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>215.7207098964969</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -25928,10 +25930,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>41.03080043885592</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>34.71189893958427</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -25953,13 +25955,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,13 +25994,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>1.48429723539752</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26023,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>147.9890084539417</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>6.935293381286499</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>451048.1091218374</v>
+        <v>451048.1091218372</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>451048.1091218372</v>
+        <v>451048.1091218374</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>451048.1091218375</v>
+        <v>451048.1091218372</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>508236.5745229486</v>
+        <v>451048.1091218372</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>508236.5745229485</v>
+        <v>451048.1091218372</v>
       </c>
     </row>
     <row r="10">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370454.3258345571</v>
+        <v>451048.1091218372</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75174.68485363958</v>
+        <v>75174.68485363957</v>
       </c>
       <c r="C2" t="n">
+        <v>75174.68485363957</v>
+      </c>
+      <c r="D2" t="n">
+        <v>75174.68485363951</v>
+      </c>
+      <c r="E2" t="n">
+        <v>75174.68485363951</v>
+      </c>
+      <c r="F2" t="n">
+        <v>75174.68485363951</v>
+      </c>
+      <c r="G2" t="n">
+        <v>75174.68485363954</v>
+      </c>
+      <c r="H2" t="n">
+        <v>75174.68485363951</v>
+      </c>
+      <c r="I2" t="n">
         <v>75174.68485363956</v>
       </c>
-      <c r="D2" t="n">
-        <v>75174.68485363956</v>
-      </c>
-      <c r="E2" t="n">
-        <v>75174.68485363956</v>
-      </c>
-      <c r="F2" t="n">
-        <v>75174.68485363954</v>
-      </c>
-      <c r="G2" t="n">
-        <v>75174.68485363957</v>
-      </c>
-      <c r="H2" t="n">
-        <v>84706.09575382475</v>
-      </c>
-      <c r="I2" t="n">
-        <v>84706.09575382475</v>
-      </c>
       <c r="J2" t="n">
-        <v>75174.68485363954</v>
+        <v>75174.68485363953</v>
       </c>
       <c r="K2" t="n">
-        <v>75174.68485363956</v>
+        <v>75174.68485363951</v>
       </c>
       <c r="L2" t="n">
-        <v>75174.68485363954</v>
+        <v>75174.6848536395</v>
       </c>
       <c r="M2" t="n">
         <v>75174.68485363954</v>
       </c>
       <c r="N2" t="n">
+        <v>75174.68485363956</v>
+      </c>
+      <c r="O2" t="n">
+        <v>75174.68485363953</v>
+      </c>
+      <c r="P2" t="n">
         <v>75174.68485363954</v>
-      </c>
-      <c r="O2" t="n">
-        <v>75174.68485363958</v>
-      </c>
-      <c r="P2" t="n">
-        <v>61742.38763909286</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95911.36395069725</v>
+        <v>120722.5169427569</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26421,31 +26423,31 @@
         <v>400.1036273708401</v>
       </c>
       <c r="D4" t="n">
-        <v>400.1036273708401</v>
+        <v>400.10362737084</v>
       </c>
       <c r="E4" t="n">
-        <v>400.1036273708401</v>
+        <v>400.10362737084</v>
       </c>
       <c r="F4" t="n">
-        <v>400.1036273708401</v>
+        <v>400.10362737084</v>
       </c>
       <c r="G4" t="n">
         <v>400.1036273708401</v>
       </c>
       <c r="H4" t="n">
-        <v>458.4532502675965</v>
+        <v>400.1036273708401</v>
       </c>
       <c r="I4" t="n">
-        <v>458.4532502675965</v>
+        <v>400.1036273708401</v>
       </c>
       <c r="J4" t="n">
         <v>400.1036273708401</v>
       </c>
       <c r="K4" t="n">
-        <v>400.1036273708401</v>
+        <v>400.10362737084</v>
       </c>
       <c r="L4" t="n">
-        <v>400.1036273708401</v>
+        <v>400.10362737084</v>
       </c>
       <c r="M4" t="n">
         <v>400.1036273708401</v>
@@ -26457,7 +26459,7 @@
         <v>400.1036273708401</v>
       </c>
       <c r="P4" t="n">
-        <v>317.8734638290789</v>
+        <v>400.1036273708401</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742812</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742812</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="J5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="K5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="L5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="M5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="N5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="O5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="P5" t="n">
-        <v>22287.57750302851</v>
+        <v>28053.11427022831</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-141531.8536620801</v>
+        <v>-141531.85366208</v>
       </c>
       <c r="C6" t="n">
-        <v>13093.86695604039</v>
+        <v>13093.86695604042</v>
       </c>
       <c r="D6" t="n">
-        <v>13093.86695604039</v>
+        <v>13093.86695604036</v>
       </c>
       <c r="E6" t="n">
+        <v>46721.46695604036</v>
+      </c>
+      <c r="F6" t="n">
+        <v>46721.46695604036</v>
+      </c>
+      <c r="G6" t="n">
         <v>46721.46695604039</v>
       </c>
-      <c r="F6" t="n">
-        <v>46721.46695604038</v>
-      </c>
-      <c r="G6" t="n">
-        <v>46721.46695604041</v>
-      </c>
       <c r="H6" t="n">
-        <v>24843.56861051371</v>
+        <v>46721.46695604036</v>
       </c>
       <c r="I6" t="n">
-        <v>50428.99146612902</v>
+        <v>46721.4669560404</v>
       </c>
       <c r="J6" t="n">
-        <v>-49189.89699465687</v>
+        <v>-74001.04998671651</v>
       </c>
       <c r="K6" t="n">
+        <v>46721.46695604036</v>
+      </c>
+      <c r="L6" t="n">
+        <v>46721.46695604034</v>
+      </c>
+      <c r="M6" t="n">
         <v>46721.46695604039</v>
       </c>
-      <c r="L6" t="n">
-        <v>46721.46695604038</v>
-      </c>
-      <c r="M6" t="n">
-        <v>46721.46695604038</v>
-      </c>
       <c r="N6" t="n">
-        <v>46721.46695604038</v>
+        <v>46721.4669560404</v>
       </c>
       <c r="O6" t="n">
-        <v>46721.46695604042</v>
+        <v>46721.46695604037</v>
       </c>
       <c r="P6" t="n">
-        <v>39136.93667223527</v>
+        <v>46721.46695604039</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="I4" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P4" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603341</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>76.49136530850708</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M2" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34772,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>160.7937153846611</v>
+        <v>359.9096973612266</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K4" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34869,7 +34871,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>359.0183117977405</v>
+        <v>340.6368316098421</v>
       </c>
       <c r="P4" t="n">
         <v>293.5345574968697</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>442.7574853255731</v>
+        <v>324.7212149383461</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>85.46778899800312</v>
+        <v>77.94592742031473</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35106,13 +35108,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>359.0183117977405</v>
+        <v>335.1447191850538</v>
       </c>
       <c r="P7" t="n">
-        <v>275.1530773089715</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35184,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>118.7437726079824</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.31557696235</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9096973612265</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35337,10 +35339,10 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
-        <v>206.0119763662141</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>381.3045564404402</v>
+        <v>192.1793661700374</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L11" t="n">
-        <v>443.4649875463285</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O11" t="n">
-        <v>461.3999057603342</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35494,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>85.46778899800323</v>
       </c>
       <c r="O12" t="n">
-        <v>168.3155769623498</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="K13" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
@@ -35583,7 +35585,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L14" t="n">
-        <v>461.3999057603342</v>
+        <v>76.49136530850708</v>
       </c>
       <c r="M14" t="n">
-        <v>442.7574853255731</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603342</v>
+        <v>85.46778899800323</v>
       </c>
       <c r="O15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.137166636617</v>
+        <v>206.0119763662141</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35820,7 +35822,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O17" t="n">
-        <v>443.4649875463285</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L18" t="n">
-        <v>442.7574853255729</v>
+        <v>160.7937153846613</v>
       </c>
       <c r="M18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>395.137166636617</v>
+        <v>206.0119763662141</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>270.4259204819595</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O20" t="n">
-        <v>510.5455990486534</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L21" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>168.3155769623498</v>
       </c>
       <c r="N21" t="n">
-        <v>158.2737632597932</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>228.8157587937749</v>
@@ -36285,7 +36287,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>395.137166636617</v>
+        <v>206.0119763662141</v>
       </c>
       <c r="N22" t="n">
         <v>381.3045564404402</v>
@@ -36297,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L23" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>77.1988675292622</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="M24" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>440.0596680121639</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>228.8157587937749</v>
@@ -36525,7 +36527,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>381.3045564404402</v>
+        <v>192.1793661700374</v>
       </c>
       <c r="O25" t="n">
         <v>359.0183117977405</v>
@@ -36534,7 +36536,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N26" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>461.3999057603342</v>
+        <v>77.94592742031456</v>
       </c>
       <c r="L27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q27" t="n">
-        <v>359.9096973612262</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>82.84778796434657</v>
@@ -36753,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
-        <v>395.137166636617</v>
+        <v>206.0119763662141</v>
       </c>
       <c r="N28" t="n">
         <v>381.3045564404402</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L29" t="n">
-        <v>461.3999057603342</v>
+        <v>76.49136530850708</v>
       </c>
       <c r="M29" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N29" t="n">
-        <v>443.4649875463285</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N30" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O30" t="n">
-        <v>461.3999057603342</v>
+        <v>168.3155769623498</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L31" t="n">
         <v>358.2720417115361</v>
@@ -37002,7 +37004,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O31" t="n">
-        <v>359.0183117977405</v>
+        <v>169.8931215273378</v>
       </c>
       <c r="P31" t="n">
         <v>293.5345574968697</v>
@@ -37069,25 +37071,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>419.8550006816142</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O33" t="n">
-        <v>77.94592742031428</v>
+        <v>168.3155769623498</v>
       </c>
       <c r="P33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K34" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L34" t="n">
         <v>358.2720417115361</v>
@@ -37242,7 +37244,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P34" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519604</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37306,19 +37308,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>419.8550006816142</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="N35" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L36" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M36" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>359.9096973612264</v>
       </c>
       <c r="O36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>85.46778899800312</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>358.2720417115361</v>
@@ -37479,10 +37481,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P37" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>39.69056852337224</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>419.8550006816142</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>443.4649875463285</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="P39" t="n">
-        <v>442.7574853255729</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37716,7 +37718,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
-        <v>104.4093672264672</v>
+        <v>104.409367226467</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L41" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L42" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q42" t="n">
-        <v>461.3999057603342</v>
+        <v>359.9096973612264</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>358.2720417115361</v>
+        <v>339.8905615236376</v>
       </c>
       <c r="M43" t="n">
         <v>395.137166636617</v>
@@ -37950,7 +37952,7 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O43" t="n">
-        <v>169.8931215273378</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
         <v>293.5345574968697</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>443.4649875463285</v>
       </c>
       <c r="L44" t="n">
-        <v>233.3231143505515</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N44" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O45" t="n">
-        <v>353.5214490703414</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P45" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,16 +38177,16 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>304.0691762469106</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>366.5719984050743</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
         <v>359.0183117977405</v>
@@ -38193,7 +38195,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
